--- a/2)国連決議/2-1)国連決議_練習用.xlsx
+++ b/2)国連決議/2-1)国連決議_練習用.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0920334\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0920334\Desktop\JNPC2302-main\2)国連決議\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52A6BBB-7892-4F99-9550-C3D3A0226C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40ABE28-4E45-41A0-A277-A293B9804A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19050" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="国連決議過去分" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="態度表明" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ISOコード表">ISOコード!$B$2:$D$250</definedName>
+    <definedName name="ISOコード表">ISOコード!$C$2:$D$250</definedName>
     <definedName name="対照表">態度表明!$B$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2890,7 +2890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E3456D-667B-403C-9D30-876B421E1D74}">
   <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
   <cols>
@@ -6299,7 +6301,7 @@
   <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="19.8"/>
@@ -9213,7 +9215,7 @@
         <v>352</v>
       </c>
       <c r="C194" s="13" t="str">
-        <f t="shared" ref="C194:C257" si="3">UPPER(B194)</f>
+        <f t="shared" ref="C194:C250" si="3">UPPER(B194)</f>
         <v>SUDAN</v>
       </c>
       <c r="D194" s="13" t="s">
